--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/TEXAS_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/TEXAS_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2012"/>
+  <dimension ref="A1:D2006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,20 +478,20 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
         <v>135</v>
       </c>
       <c r="D9">
-        <v>0.0009660038210817811</v>
+        <v>0.0009660038210817812</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -607,7 +607,7 @@
         <v>133</v>
       </c>
       <c r="D18">
-        <v>0.0009516926533620511</v>
+        <v>0.0009516926533620512</v>
       </c>
     </row>
     <row r="19">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C39">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C43">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C52">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C57">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C82">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C85">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C89">
@@ -1642,7 +1642,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C97">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C98">
@@ -2219,7 +2219,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C141">
@@ -2362,7 +2362,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C152">
@@ -2401,7 +2401,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C155">
@@ -2700,7 +2700,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C178">
@@ -2713,7 +2713,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C179">
@@ -2726,7 +2726,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C180">
@@ -2830,7 +2830,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C188">
@@ -3251,7 +3251,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C220">
@@ -3477,7 +3477,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C237">
@@ -3503,7 +3503,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3560,7 +3560,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C243">
@@ -3760,7 +3760,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C258">
@@ -3942,7 +3942,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C272">
@@ -3994,7 +3994,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C276">
@@ -4085,7 +4085,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C283">
@@ -4098,7 +4098,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C284">
@@ -4111,7 +4111,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C285">
@@ -4124,7 +4124,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C286">
@@ -4254,19 +4254,19 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C296">
         <v>135</v>
       </c>
       <c r="D296">
-        <v>0.0009660038210817811</v>
+        <v>0.0009660038210817812</v>
       </c>
     </row>
     <row r="297">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C299">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C300">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C307">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C315">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C320">
@@ -4662,7 +4662,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C327">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C335">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C336">
@@ -5000,7 +5000,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C353">
@@ -5182,7 +5182,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C367">
@@ -5195,7 +5195,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C368">
@@ -5221,7 +5221,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5247,7 +5247,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C372">
@@ -5377,7 +5377,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C382">
@@ -5390,7 +5390,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C383">
@@ -5572,7 +5572,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C397">
@@ -5650,7 +5650,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C403">
@@ -5663,7 +5663,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C404">
@@ -5676,7 +5676,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C405">
@@ -5689,7 +5689,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C406">
@@ -5876,7 +5876,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C420">
@@ -5889,7 +5889,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C421">
@@ -5993,7 +5993,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C429">
@@ -6045,7 +6045,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C433">
@@ -6149,7 +6149,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C441">
@@ -6201,7 +6201,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C445">
@@ -6221,20 +6221,20 @@
         <v>1276</v>
       </c>
       <c r="D446">
-        <v>0.009130525005187799</v>
+        <v>0.0091305250051878</v>
       </c>
     </row>
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C447">
         <v>134</v>
       </c>
       <c r="D447">
-        <v>0.0009588482372219161</v>
+        <v>0.000958848237221916</v>
       </c>
     </row>
     <row r="448">
@@ -6253,7 +6253,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C449">
@@ -6279,7 +6279,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C451">
@@ -6305,7 +6305,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C453">
@@ -6370,7 +6370,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C458">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C464">
@@ -6492,7 +6492,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C467">
@@ -6505,7 +6505,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C468">
@@ -6557,7 +6557,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C472">
@@ -6570,7 +6570,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C473">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C475">
@@ -6609,7 +6609,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C476">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C479">
@@ -6661,7 +6661,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C480">
@@ -6674,7 +6674,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C481">
@@ -6687,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C482">
@@ -6752,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C487">
@@ -6765,7 +6765,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C488">
@@ -6817,7 +6817,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C492">
@@ -6830,7 +6830,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C493">
@@ -6889,7 +6889,7 @@
         <v>138</v>
       </c>
       <c r="D497">
-        <v>0.0009874705726613763</v>
+        <v>0.0009874705726613765</v>
       </c>
     </row>
     <row r="498">
@@ -6908,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C499">
@@ -6921,7 +6921,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C500">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C502">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C503">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C505">
@@ -7025,7 +7025,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C508">
@@ -7194,7 +7194,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C521">
@@ -7220,7 +7220,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C523">
@@ -7246,7 +7246,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C525">
@@ -7272,7 +7272,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C527">
@@ -7324,7 +7324,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C531">
@@ -7337,7 +7337,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C532">
@@ -7498,7 +7498,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C544">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C551">
@@ -7602,7 +7602,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C552">
@@ -7680,7 +7680,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C558">
@@ -7758,7 +7758,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C564">
@@ -7810,7 +7810,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C568">
@@ -7849,7 +7849,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C571">
@@ -7940,7 +7940,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C578">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C579">
@@ -7966,7 +7966,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C580">
@@ -7979,7 +7979,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C581">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C582">
@@ -8018,7 +8018,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C584">
@@ -8031,7 +8031,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C585">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C586">
@@ -8083,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C589">
@@ -8161,7 +8161,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C595">
@@ -8174,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C596">
@@ -8226,7 +8226,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C600">
@@ -8252,7 +8252,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C602">
@@ -8265,7 +8265,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C603">
@@ -8304,7 +8304,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C606">
@@ -8421,7 +8421,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C615">
@@ -8434,7 +8434,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C616">
@@ -8447,7 +8447,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C617">
@@ -8499,7 +8499,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C621">
@@ -8512,7 +8512,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C622">
@@ -8582,7 +8582,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C627">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C628">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C633">
@@ -8699,7 +8699,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C636">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C638">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C644">
@@ -8881,7 +8881,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C650">
@@ -8985,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C658">
@@ -9076,7 +9076,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C665">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C667">
@@ -9154,7 +9154,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C671">
@@ -9232,7 +9232,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C677">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C678">
@@ -9349,7 +9349,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C686">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C691">
@@ -9427,7 +9427,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C692">
@@ -9453,7 +9453,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C694">
@@ -9466,7 +9466,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C695">
@@ -9505,7 +9505,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C698">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C700">
@@ -9544,7 +9544,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C701">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C702">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C703">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C706">
@@ -9622,7 +9622,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C707">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C710">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C715">
@@ -9765,7 +9765,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C718">
@@ -9778,7 +9778,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C719">
@@ -9921,7 +9921,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C730">
@@ -9934,7 +9934,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C731">
@@ -9947,7 +9947,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C732">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C733">
@@ -10025,7 +10025,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C738">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C739">
@@ -10077,7 +10077,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C742">
@@ -10090,7 +10090,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C743">
@@ -10103,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C744">
@@ -10446,7 +10446,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C770">
@@ -10472,7 +10472,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C772">
@@ -11343,7 +11343,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C839">
@@ -11686,7 +11686,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C865">
@@ -11790,7 +11790,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C873">
@@ -11842,7 +11842,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C877">
@@ -11920,7 +11920,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C883">
@@ -11933,7 +11933,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C884">
@@ -12037,7 +12037,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C892">
@@ -12094,7 +12094,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C896">
@@ -12107,7 +12107,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C897">
@@ -12159,7 +12159,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C901">
@@ -12250,7 +12250,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C908">
@@ -12489,7 +12489,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C926">
@@ -12723,7 +12723,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C944">
@@ -12814,7 +12814,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C951">
@@ -12840,7 +12840,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C953">
@@ -12931,7 +12931,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C960">
@@ -13040,7 +13040,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C968">
@@ -13092,7 +13092,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C972">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C977">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C978">
@@ -13209,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C981">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C984">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C987">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C989">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C991">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C993">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C994">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C995">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C996">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C998">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C999">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1011">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1012">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1014">
@@ -13651,7 +13651,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1015">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1016">
@@ -13690,7 +13690,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1018">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1020">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1021">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1022">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1024">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1025">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1027">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1041">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1043">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1047">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1055">
@@ -14418,7 +14418,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1074">
@@ -14431,7 +14431,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1075">
@@ -14509,7 +14509,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1081">
@@ -14626,7 +14626,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1090">
@@ -14639,7 +14639,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1091">
@@ -14964,7 +14964,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1116">
@@ -15107,7 +15107,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1127">
@@ -15276,7 +15276,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1140">
@@ -15328,7 +15328,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1144">
@@ -15523,7 +15523,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1159">
@@ -15653,7 +15653,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1169">
@@ -15770,7 +15770,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1178">
@@ -15822,7 +15822,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1182">
@@ -15835,7 +15835,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1183">
@@ -16017,7 +16017,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1197">
@@ -16732,7 +16732,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1252">
@@ -16992,7 +16992,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1272">
@@ -17005,7 +17005,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1273">
@@ -17018,7 +17018,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1274">
@@ -17031,7 +17031,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1275">
@@ -17044,7 +17044,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1276">
@@ -17070,7 +17070,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1278">
@@ -17083,7 +17083,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1279">
@@ -17109,7 +17109,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1281">
@@ -17122,7 +17122,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1282">
@@ -17135,7 +17135,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1283">
@@ -17148,7 +17148,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1284">
@@ -17161,7 +17161,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1285">
@@ -17174,7 +17174,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1286">
@@ -17200,7 +17200,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1288">
@@ -17530,7 +17530,7 @@
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1313">
@@ -17595,7 +17595,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1318">
@@ -17868,7 +17868,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1339">
@@ -17907,7 +17907,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1342">
@@ -17920,7 +17920,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1343">
@@ -18128,7 +18128,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1359">
@@ -18141,7 +18141,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1360">
@@ -18206,7 +18206,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1365">
@@ -18219,7 +18219,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1366">
@@ -18258,7 +18258,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1369">
@@ -18388,7 +18388,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1379">
@@ -18401,7 +18401,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1380">
@@ -18531,7 +18531,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1390">
@@ -18648,7 +18648,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1399">
@@ -18791,7 +18791,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1410">
@@ -18843,7 +18843,7 @@
     <row r="1414">
       <c r="B1414" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1414">
@@ -18856,7 +18856,7 @@
     <row r="1415">
       <c r="B1415" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1415">
@@ -18960,7 +18960,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1423">
@@ -19064,7 +19064,7 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1431">
@@ -19077,7 +19077,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1432">
@@ -19090,7 +19090,7 @@
     <row r="1433">
       <c r="B1433" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1433">
@@ -19155,7 +19155,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1438">
@@ -19181,7 +19181,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1440">
@@ -19194,7 +19194,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1441">
@@ -19259,7 +19259,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1446">
@@ -19415,7 +19415,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1458">
@@ -19597,7 +19597,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1472">
@@ -19693,7 +19693,7 @@
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1479">
@@ -19719,7 +19719,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1481">
@@ -19797,7 +19797,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1487">
@@ -19810,7 +19810,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1488">
@@ -19849,7 +19849,7 @@
     <row r="1491">
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1491">
@@ -19888,7 +19888,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1494">
@@ -20080,7 +20080,7 @@
     <row r="1508">
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1508">
@@ -20093,7 +20093,7 @@
     <row r="1509">
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1509">
@@ -20158,7 +20158,7 @@
     <row r="1514">
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1514">
@@ -20184,7 +20184,7 @@
     <row r="1516">
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1516">
@@ -20327,7 +20327,7 @@
     <row r="1527">
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1527">
@@ -20405,7 +20405,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1533">
@@ -20483,7 +20483,7 @@
     <row r="1539">
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1539">
@@ -20509,7 +20509,7 @@
     <row r="1541">
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1541">
@@ -20613,7 +20613,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1549">
@@ -20665,7 +20665,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1553">
@@ -20678,7 +20678,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1554">
@@ -20691,7 +20691,7 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1555">
@@ -20704,7 +20704,7 @@
     <row r="1556">
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1556">
@@ -20717,7 +20717,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1557">
@@ -20730,7 +20730,7 @@
     <row r="1558">
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1558">
@@ -21286,7 +21286,7 @@
     <row r="1600">
       <c r="B1600" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1600">
@@ -21564,7 +21564,7 @@
     <row r="1621">
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1621">
@@ -22154,7 +22154,7 @@
     <row r="1666">
       <c r="B1666" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1666">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1674">
@@ -22289,7 +22289,7 @@
     <row r="1676">
       <c r="B1676" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1676">
@@ -22302,7 +22302,7 @@
     <row r="1677">
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1677">
@@ -22380,7 +22380,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1683">
@@ -22458,7 +22458,7 @@
     <row r="1689">
       <c r="B1689" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1689">
@@ -22497,7 +22497,7 @@
     <row r="1692">
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1692">
@@ -22510,7 +22510,7 @@
     <row r="1693">
       <c r="B1693" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1693">
@@ -22562,7 +22562,7 @@
     <row r="1697">
       <c r="B1697" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1697">
@@ -22614,7 +22614,7 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1701">
@@ -22653,7 +22653,7 @@
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1704">
@@ -22796,7 +22796,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1715">
@@ -22931,7 +22931,7 @@
     <row r="1725">
       <c r="B1725" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1725">
@@ -22983,7 +22983,7 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1729">
@@ -23126,7 +23126,7 @@
     <row r="1740">
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1740">
@@ -23152,7 +23152,7 @@
     <row r="1742">
       <c r="B1742" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1742">
@@ -23204,7 +23204,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1746">
@@ -23230,7 +23230,7 @@
     <row r="1748">
       <c r="B1748" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1748">
@@ -23334,7 +23334,7 @@
     <row r="1756">
       <c r="B1756" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1756">
@@ -23503,20 +23503,20 @@
     <row r="1769">
       <c r="B1769" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1769">
         <v>133</v>
       </c>
       <c r="D1769">
-        <v>0.0009516926533620511</v>
+        <v>0.0009516926533620512</v>
       </c>
     </row>
     <row r="1770">
       <c r="B1770" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1770">
@@ -23737,7 +23737,7 @@
     <row r="1787">
       <c r="B1787" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1787">
@@ -23750,7 +23750,7 @@
     <row r="1788">
       <c r="B1788" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1788">
@@ -23763,7 +23763,7 @@
     <row r="1789">
       <c r="B1789" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1789">
@@ -23815,7 +23815,7 @@
     <row r="1793">
       <c r="B1793" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1793">
@@ -23828,7 +23828,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1794">
@@ -23841,7 +23841,7 @@
     <row r="1795">
       <c r="B1795" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1795">
@@ -23984,7 +23984,7 @@
     <row r="1806">
       <c r="B1806" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1806">
@@ -24023,7 +24023,7 @@
     <row r="1809">
       <c r="B1809" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1809">
@@ -24049,7 +24049,7 @@
     <row r="1811">
       <c r="B1811" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1811">
@@ -24062,7 +24062,7 @@
     <row r="1812">
       <c r="B1812" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1812">
@@ -24127,7 +24127,7 @@
     <row r="1817">
       <c r="B1817" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1817">
@@ -24166,7 +24166,7 @@
     <row r="1820">
       <c r="B1820" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1820">
@@ -24231,7 +24231,7 @@
     <row r="1825">
       <c r="B1825" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1825">
@@ -24374,7 +24374,7 @@
     <row r="1836">
       <c r="B1836" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1836">
@@ -24426,7 +24426,7 @@
     <row r="1840">
       <c r="B1840" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1840">
@@ -24439,7 +24439,7 @@
     <row r="1841">
       <c r="B1841" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1841">
@@ -24491,7 +24491,7 @@
     <row r="1845">
       <c r="B1845" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1845">
@@ -24621,7 +24621,7 @@
     <row r="1855">
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1855">
@@ -24673,7 +24673,7 @@
     <row r="1859">
       <c r="B1859" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1859">
@@ -24777,7 +24777,7 @@
     <row r="1867">
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1867">
@@ -25206,7 +25206,7 @@
     <row r="1900">
       <c r="B1900" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1900">
@@ -25252,7 +25252,7 @@
         <v>129</v>
       </c>
       <c r="D1903">
-        <v>0.0009230703179225909</v>
+        <v>0.0009230703179225908</v>
       </c>
     </row>
     <row r="1904">
@@ -25349,7 +25349,7 @@
     <row r="1911">
       <c r="B1911" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1911">
@@ -25362,7 +25362,7 @@
     <row r="1912">
       <c r="B1912" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1912">
@@ -25905,7 +25905,7 @@
     <row r="1953">
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1953">
@@ -25931,7 +25931,7 @@
     <row r="1955">
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1955">
@@ -25957,7 +25957,7 @@
     <row r="1957">
       <c r="B1957" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1957">
@@ -26100,7 +26100,7 @@
     <row r="1968">
       <c r="B1968" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1968">
@@ -26191,7 +26191,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1975">
@@ -26256,7 +26256,7 @@
     <row r="1980">
       <c r="B1980" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1980">
@@ -26269,7 +26269,7 @@
     <row r="1981">
       <c r="B1981" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1981">
@@ -26282,7 +26282,7 @@
     <row r="1982">
       <c r="B1982" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1982">
@@ -26425,7 +26425,7 @@
     <row r="1993">
       <c r="B1993" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1993">
@@ -26438,7 +26438,7 @@
     <row r="1994">
       <c r="B1994" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1994">
@@ -26464,7 +26464,7 @@
     <row r="1996">
       <c r="B1996" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1996">
@@ -26503,7 +26503,7 @@
     <row r="1999">
       <c r="B1999" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1999">
@@ -26602,41 +26602,6 @@
       </c>
       <c r="D2006">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
